--- a/Figures/Table_3_v2.xlsx
+++ b/Figures/Table_3_v2.xlsx
@@ -18,7 +18,283 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
+  </si>
+  <si>
+    <t>d_{min}</t>
+  </si>
+  <si>
+    <t>d_{max}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1848</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1890</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1918</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1957</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1968</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
+  </si>
+  <si>
+    <t>d_{min}</t>
+  </si>
+  <si>
+    <t>d_{max}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
+  </si>
+  <si>
+    <t>d_{min}</t>
+  </si>
+  <si>
+    <t>d_{max}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1848</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1890</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1918</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1957</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1968</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
+  </si>
+  <si>
+    <t>d_{min}</t>
+  </si>
+  <si>
+    <t>d_{max}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1848</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1890</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1918</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1957</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1968</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1848</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1890</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1918</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1957</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1968</t>
+  </si>
   <si>
     <t>Var1</t>
   </si>
@@ -361,54 +637,54 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>19</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="B2" s="0">
         <v>0.073999999999999996</v>
@@ -455,7 +731,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="B3" s="0">
         <v>2.4700000000000002</v>
@@ -502,7 +778,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="B4" s="0">
         <v>21.977</v>
@@ -549,7 +825,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="B5" s="0">
         <v>3643.7660000000001</v>
@@ -596,7 +872,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="B6" s="0">
         <v>27</v>
@@ -663,36 +939,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>29</v>
+        <v>121</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="B2" s="0">
         <v>0.081000000000000003</v>
@@ -721,7 +997,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="B3" s="0">
         <v>3.3170000000000002</v>
@@ -750,7 +1026,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="B4" s="0">
         <v>11.664</v>
@@ -779,7 +1055,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>116</v>
       </c>
       <c r="B5" s="0">
         <v>4550</v>
@@ -808,7 +1084,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>117</v>
       </c>
       <c r="B6" s="0">
         <v>27</v>
@@ -863,54 +1139,54 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>40</v>
+        <v>132</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>41</v>
+        <v>133</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>45</v>
+        <v>137</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>46</v>
+        <v>138</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>47</v>
+        <v>139</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>48</v>
+        <v>140</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>49</v>
+        <v>141</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>50</v>
+        <v>142</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>51</v>
+        <v>143</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>52</v>
+        <v>144</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>53</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="B2" s="0">
         <v>0.082000000000000003</v>
@@ -949,7 +1225,7 @@
         <v>0.11</v>
       </c>
       <c r="N2" s="0">
-        <v>1.151</v>
+        <v>0.85799999999999998</v>
       </c>
       <c r="O2" s="0">
         <v>0.13800000000000001</v>
@@ -957,7 +1233,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="B3" s="0">
         <v>2.8919999999999999</v>
@@ -996,7 +1272,7 @@
         <v>3.7789999999999999</v>
       </c>
       <c r="N3" s="0">
-        <v>10</v>
+        <v>7.242</v>
       </c>
       <c r="O3" s="0">
         <v>4.6420000000000003</v>
@@ -1004,7 +1280,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="B4" s="0">
         <v>21.977</v>
@@ -1051,7 +1327,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="B5" s="0">
         <v>3643.7660000000001</v>
@@ -1098,7 +1374,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="B6" s="0">
         <v>27</v>
@@ -1171,54 +1447,54 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>54</v>
+        <v>146</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>60</v>
+        <v>152</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>61</v>
+        <v>153</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>62</v>
+        <v>154</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>64</v>
+        <v>156</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>65</v>
+        <v>157</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>66</v>
+        <v>158</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>67</v>
+        <v>159</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>68</v>
+        <v>160</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>70</v>
+        <v>162</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>71</v>
+        <v>163</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>72</v>
+        <v>164</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>73</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>55</v>
+        <v>147</v>
       </c>
       <c r="B2" s="0">
         <v>0.031</v>
@@ -1265,7 +1541,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>56</v>
+        <v>148</v>
       </c>
       <c r="B3" s="0">
         <v>2.6099999999999999</v>
@@ -1312,7 +1588,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>57</v>
+        <v>149</v>
       </c>
       <c r="B4" s="0">
         <v>1</v>
@@ -1359,7 +1635,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>58</v>
+        <v>150</v>
       </c>
       <c r="B5" s="0">
         <v>1000000</v>
@@ -1406,7 +1682,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>59</v>
+        <v>151</v>
       </c>
       <c r="B6" s="0">
         <v>27</v>
@@ -1479,54 +1755,54 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>74</v>
+        <v>166</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>81</v>
+        <v>173</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>83</v>
+        <v>175</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>84</v>
+        <v>176</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>85</v>
+        <v>177</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>86</v>
+        <v>178</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>87</v>
+        <v>179</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>88</v>
+        <v>180</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>89</v>
+        <v>181</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>90</v>
+        <v>182</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>91</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>75</v>
+        <v>167</v>
       </c>
       <c r="B2" s="0">
         <v>0.0080000000000000002</v>
@@ -1573,7 +1849,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>76</v>
+        <v>168</v>
       </c>
       <c r="B3" s="0">
         <v>0.95599999999999996</v>
@@ -1620,7 +1896,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="B4" s="0">
         <v>27</v>

--- a/Figures/Table_3_v2.xlsx
+++ b/Figures/Table_3_v2.xlsx
@@ -18,7 +18,283 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="276">
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
+  </si>
+  <si>
+    <t>d_{min}</t>
+  </si>
+  <si>
+    <t>d_{max}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1848</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1890</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1918</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1957</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1968</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
+  </si>
+  <si>
+    <t>d_{min}</t>
+  </si>
+  <si>
+    <t>d_{max}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
+  </si>
+  <si>
+    <t>d_{min}</t>
+  </si>
+  <si>
+    <t>d_{max}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1848</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1890</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1918</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1957</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1968</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
+  </si>
+  <si>
+    <t>d_{min}</t>
+  </si>
+  <si>
+    <t>d_{max}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1848</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1890</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1918</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1957</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1968</t>
+  </si>
+  <si>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>\lambda</t>
+  </si>
+  <si>
+    <t>\eta_{0}</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Sheffield</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1848</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1890</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1918</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1957</t>
+  </si>
+  <si>
+    <t>England &amp; Wales 1968</t>
+  </si>
   <si>
     <t>Var1</t>
   </si>
@@ -637,54 +913,54 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>92</v>
+        <v>184</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>98</v>
+        <v>190</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>99</v>
+        <v>191</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>100</v>
+        <v>192</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>101</v>
+        <v>193</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>102</v>
+        <v>194</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>103</v>
+        <v>195</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>104</v>
+        <v>196</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>105</v>
+        <v>197</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>106</v>
+        <v>198</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>107</v>
+        <v>199</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>108</v>
+        <v>200</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>109</v>
+        <v>201</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>110</v>
+        <v>202</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>111</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>93</v>
+        <v>185</v>
       </c>
       <c r="B2" s="0">
         <v>0.073999999999999996</v>
@@ -731,7 +1007,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>94</v>
+        <v>186</v>
       </c>
       <c r="B3" s="0">
         <v>2.4700000000000002</v>
@@ -778,7 +1054,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>95</v>
+        <v>187</v>
       </c>
       <c r="B4" s="0">
         <v>21.977</v>
@@ -825,7 +1101,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>96</v>
+        <v>188</v>
       </c>
       <c r="B5" s="0">
         <v>3643.7660000000001</v>
@@ -872,7 +1148,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>97</v>
+        <v>189</v>
       </c>
       <c r="B6" s="0">
         <v>27</v>
@@ -939,36 +1215,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>112</v>
+        <v>204</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>118</v>
+        <v>210</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>119</v>
+        <v>211</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>120</v>
+        <v>212</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>122</v>
+        <v>214</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>123</v>
+        <v>215</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>124</v>
+        <v>216</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>125</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>113</v>
+        <v>205</v>
       </c>
       <c r="B2" s="0">
         <v>0.081000000000000003</v>
@@ -997,7 +1273,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>114</v>
+        <v>206</v>
       </c>
       <c r="B3" s="0">
         <v>3.3170000000000002</v>
@@ -1026,7 +1302,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>115</v>
+        <v>207</v>
       </c>
       <c r="B4" s="0">
         <v>11.664</v>
@@ -1055,7 +1331,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>116</v>
+        <v>208</v>
       </c>
       <c r="B5" s="0">
         <v>4550</v>
@@ -1084,7 +1360,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>117</v>
+        <v>209</v>
       </c>
       <c r="B6" s="0">
         <v>27</v>
@@ -1139,54 +1415,54 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>126</v>
+        <v>218</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>132</v>
+        <v>224</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>133</v>
+        <v>225</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>134</v>
+        <v>226</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>135</v>
+        <v>227</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>136</v>
+        <v>228</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>137</v>
+        <v>229</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>138</v>
+        <v>230</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>139</v>
+        <v>231</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>140</v>
+        <v>232</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>141</v>
+        <v>233</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>142</v>
+        <v>234</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>143</v>
+        <v>235</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>144</v>
+        <v>236</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>145</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>127</v>
+        <v>219</v>
       </c>
       <c r="B2" s="0">
         <v>0.082000000000000003</v>
@@ -1233,7 +1509,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>128</v>
+        <v>220</v>
       </c>
       <c r="B3" s="0">
         <v>2.8919999999999999</v>
@@ -1280,7 +1556,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>129</v>
+        <v>221</v>
       </c>
       <c r="B4" s="0">
         <v>21.977</v>
@@ -1327,7 +1603,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>130</v>
+        <v>222</v>
       </c>
       <c r="B5" s="0">
         <v>3643.7660000000001</v>
@@ -1374,7 +1650,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>131</v>
+        <v>223</v>
       </c>
       <c r="B6" s="0">
         <v>27</v>
@@ -1447,54 +1723,54 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>146</v>
+        <v>238</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>152</v>
+        <v>244</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>153</v>
+        <v>245</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>154</v>
+        <v>246</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>155</v>
+        <v>247</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>156</v>
+        <v>248</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>157</v>
+        <v>249</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>158</v>
+        <v>250</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>159</v>
+        <v>251</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>160</v>
+        <v>252</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>161</v>
+        <v>253</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>162</v>
+        <v>254</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>163</v>
+        <v>255</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>164</v>
+        <v>256</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>165</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>147</v>
+        <v>239</v>
       </c>
       <c r="B2" s="0">
         <v>0.031</v>
@@ -1541,7 +1817,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>148</v>
+        <v>240</v>
       </c>
       <c r="B3" s="0">
         <v>2.6099999999999999</v>
@@ -1588,7 +1864,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>149</v>
+        <v>241</v>
       </c>
       <c r="B4" s="0">
         <v>1</v>
@@ -1635,7 +1911,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>150</v>
+        <v>242</v>
       </c>
       <c r="B5" s="0">
         <v>1000000</v>
@@ -1682,7 +1958,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>151</v>
+        <v>243</v>
       </c>
       <c r="B6" s="0">
         <v>27</v>
@@ -1755,54 +2031,54 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>166</v>
+        <v>258</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>170</v>
+        <v>262</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>171</v>
+        <v>263</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>172</v>
+        <v>264</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>173</v>
+        <v>265</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>174</v>
+        <v>266</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>175</v>
+        <v>267</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>176</v>
+        <v>268</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>177</v>
+        <v>269</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>178</v>
+        <v>270</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>179</v>
+        <v>271</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>180</v>
+        <v>272</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>181</v>
+        <v>273</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>182</v>
+        <v>274</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>183</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>167</v>
+        <v>259</v>
       </c>
       <c r="B2" s="0">
         <v>0.0080000000000000002</v>
@@ -1849,7 +2125,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>168</v>
+        <v>260</v>
       </c>
       <c r="B3" s="0">
         <v>0.95599999999999996</v>
@@ -1896,7 +2172,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>169</v>
+        <v>261</v>
       </c>
       <c r="B4" s="0">
         <v>27</v>
